--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H2">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I2">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J2">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.684044333333333</v>
+        <v>3.058122</v>
       </c>
       <c r="N2">
-        <v>17.052133</v>
+        <v>9.174365999999999</v>
       </c>
       <c r="O2">
-        <v>0.1657316086171094</v>
+        <v>0.1133977796540004</v>
       </c>
       <c r="P2">
-        <v>0.1811873991500813</v>
+        <v>0.1165634753455787</v>
       </c>
       <c r="Q2">
-        <v>27.72422938486444</v>
+        <v>16.319465197574</v>
       </c>
       <c r="R2">
-        <v>249.51806446378</v>
+        <v>146.875186778166</v>
       </c>
       <c r="S2">
-        <v>0.02003223139319036</v>
+        <v>0.01083416409227731</v>
       </c>
       <c r="T2">
-        <v>0.02240957694586184</v>
+        <v>0.01119235756635165</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H3">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I3">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J3">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>36.972484</v>
       </c>
       <c r="O3">
-        <v>0.3593397522697215</v>
+        <v>0.4569904442326647</v>
       </c>
       <c r="P3">
-        <v>0.3928510419240804</v>
+        <v>0.4697481250692204</v>
       </c>
       <c r="Q3">
-        <v>60.11175419193779</v>
+        <v>65.76706945263157</v>
       </c>
       <c r="R3">
-        <v>541.0057877274401</v>
+        <v>591.903625073684</v>
       </c>
       <c r="S3">
-        <v>0.04343394193964055</v>
+        <v>0.04366143214202459</v>
       </c>
       <c r="T3">
-        <v>0.04858850943032439</v>
+        <v>0.04510494360528185</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H4">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I4">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J4">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.398911333333333</v>
+        <v>6.332890333333334</v>
       </c>
       <c r="N4">
-        <v>13.196734</v>
+        <v>18.998671</v>
       </c>
       <c r="O4">
-        <v>0.1282605498275261</v>
+        <v>0.2348289906656054</v>
       </c>
       <c r="P4">
-        <v>0.1402218661287388</v>
+        <v>0.241384649217969</v>
       </c>
       <c r="Q4">
-        <v>21.45592463693778</v>
+        <v>33.7950491821079</v>
       </c>
       <c r="R4">
-        <v>193.10332173244</v>
+        <v>304.1554426389711</v>
       </c>
       <c r="S4">
-        <v>0.01550304757313251</v>
+        <v>0.02243585215034917</v>
       </c>
       <c r="T4">
-        <v>0.01734288760280436</v>
+        <v>0.02317761457494454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H5">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I5">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J5">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.776807999999999</v>
+        <v>2.1972435</v>
       </c>
       <c r="N5">
-        <v>17.553616</v>
+        <v>4.394487</v>
       </c>
       <c r="O5">
-        <v>0.2559083678910167</v>
+        <v>0.08147566848516331</v>
       </c>
       <c r="P5">
-        <v>0.1865159055890107</v>
+        <v>0.05583346871936067</v>
       </c>
       <c r="Q5">
-        <v>42.80934911642667</v>
+        <v>11.7254441872645</v>
       </c>
       <c r="R5">
-        <v>256.85609469856</v>
+        <v>70.352665123587</v>
       </c>
       <c r="S5">
-        <v>0.03093203332678751</v>
+        <v>0.007784286117326165</v>
       </c>
       <c r="T5">
-        <v>0.02306861601596184</v>
+        <v>0.005361097412582401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H6">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I6">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J6">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.112757333333333</v>
+        <v>3.055677</v>
       </c>
       <c r="N6">
-        <v>9.338272</v>
+        <v>9.167031</v>
       </c>
       <c r="O6">
-        <v>0.09075972139462624</v>
+        <v>0.1133071169625662</v>
       </c>
       <c r="P6">
-        <v>0.09922378720808875</v>
+        <v>0.1164702816478714</v>
       </c>
       <c r="Q6">
-        <v>15.18263990705778</v>
+        <v>16.306417617259</v>
       </c>
       <c r="R6">
-        <v>136.64375916352</v>
+        <v>146.757758555331</v>
       </c>
       <c r="S6">
-        <v>0.01097026545104654</v>
+        <v>0.01082550206662706</v>
       </c>
       <c r="T6">
-        <v>0.01227217292554469</v>
+        <v>0.01118340916133388</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>10.949652</v>
       </c>
       <c r="I7">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J7">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.684044333333333</v>
+        <v>3.058122</v>
       </c>
       <c r="N7">
-        <v>17.052133</v>
+        <v>9.174365999999999</v>
       </c>
       <c r="O7">
-        <v>0.1657316086171094</v>
+        <v>0.1133977796540004</v>
       </c>
       <c r="P7">
-        <v>0.1811873991500813</v>
+        <v>0.1165634753455787</v>
       </c>
       <c r="Q7">
-        <v>20.746102467524</v>
+        <v>11.161790557848</v>
       </c>
       <c r="R7">
-        <v>186.714922207716</v>
+        <v>100.456115020632</v>
       </c>
       <c r="S7">
-        <v>0.01499016327440873</v>
+        <v>0.007410087830901077</v>
       </c>
       <c r="T7">
-        <v>0.01676913623527164</v>
+        <v>0.007655076284162402</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>10.949652</v>
       </c>
       <c r="I8">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J8">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>36.972484</v>
       </c>
       <c r="O8">
-        <v>0.3593397522697215</v>
+        <v>0.4569904442326647</v>
       </c>
       <c r="P8">
-        <v>0.3928510419240804</v>
+        <v>0.4697481250692204</v>
       </c>
       <c r="Q8">
         <v>44.98175926395201</v>
@@ -948,10 +948,10 @@
         <v>404.835833375568</v>
       </c>
       <c r="S8">
-        <v>0.03250171528807947</v>
+        <v>0.0298624835510797</v>
       </c>
       <c r="T8">
-        <v>0.03635888959770611</v>
+        <v>0.03084978138380068</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>10.949652</v>
       </c>
       <c r="I9">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J9">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.398911333333333</v>
+        <v>6.332890333333334</v>
       </c>
       <c r="N9">
-        <v>13.196734</v>
+        <v>18.998671</v>
       </c>
       <c r="O9">
-        <v>0.1282605498275261</v>
+        <v>0.2348289906656054</v>
       </c>
       <c r="P9">
-        <v>0.1402218661287388</v>
+        <v>0.241384649217969</v>
       </c>
       <c r="Q9">
-        <v>16.055516092952</v>
+        <v>23.11431510138801</v>
       </c>
       <c r="R9">
-        <v>144.499644836568</v>
+        <v>208.028835912492</v>
       </c>
       <c r="S9">
-        <v>0.01160096495546575</v>
+        <v>0.01534512802087831</v>
       </c>
       <c r="T9">
-        <v>0.01297772133882848</v>
+        <v>0.0158524606280918</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>10.949652</v>
       </c>
       <c r="I10">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J10">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.776807999999999</v>
+        <v>2.1972435</v>
       </c>
       <c r="N10">
-        <v>17.553616</v>
+        <v>4.394487</v>
       </c>
       <c r="O10">
-        <v>0.2559083678910167</v>
+        <v>0.08147566848516331</v>
       </c>
       <c r="P10">
-        <v>0.1865159055890107</v>
+        <v>0.05583346871936067</v>
       </c>
       <c r="Q10">
-        <v>32.034331090272</v>
+        <v>8.019683894753999</v>
       </c>
       <c r="R10">
-        <v>192.205986541632</v>
+        <v>48.118103368524</v>
       </c>
       <c r="S10">
-        <v>0.02314650928680947</v>
+        <v>0.005324106533642704</v>
       </c>
       <c r="T10">
-        <v>0.01726229663618294</v>
+        <v>0.003666752908567195</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>10.949652</v>
       </c>
       <c r="I11">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J11">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.112757333333333</v>
+        <v>3.055677</v>
       </c>
       <c r="N11">
-        <v>9.338272</v>
+        <v>9.167031</v>
       </c>
       <c r="O11">
-        <v>0.09075972139462624</v>
+        <v>0.1133071169625662</v>
       </c>
       <c r="P11">
-        <v>0.09922378720808875</v>
+        <v>0.1164702816478714</v>
       </c>
       <c r="Q11">
-        <v>11.361203186816</v>
+        <v>11.152866591468</v>
       </c>
       <c r="R11">
-        <v>102.250828681344</v>
+        <v>100.375799323212</v>
       </c>
       <c r="S11">
-        <v>0.008209074019117689</v>
+        <v>0.007404163389447613</v>
       </c>
       <c r="T11">
-        <v>0.00918329427585526</v>
+        <v>0.007648955971920191</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H12">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I12">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J12">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.684044333333333</v>
+        <v>3.058122</v>
       </c>
       <c r="N12">
-        <v>17.052133</v>
+        <v>9.174365999999999</v>
       </c>
       <c r="O12">
-        <v>0.1657316086171094</v>
+        <v>0.1133977796540004</v>
       </c>
       <c r="P12">
-        <v>0.1811873991500813</v>
+        <v>0.1165634753455787</v>
       </c>
       <c r="Q12">
-        <v>96.04503452321788</v>
+        <v>68.291216981086</v>
       </c>
       <c r="R12">
-        <v>864.405310708961</v>
+        <v>614.620952829774</v>
       </c>
       <c r="S12">
-        <v>0.06939764958034972</v>
+        <v>0.04533716282224669</v>
       </c>
       <c r="T12">
-        <v>0.07763348663501658</v>
+        <v>0.04683607641794807</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H13">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I13">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J13">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>36.972484</v>
       </c>
       <c r="O13">
-        <v>0.3593397522697215</v>
+        <v>0.4569904442326647</v>
       </c>
       <c r="P13">
-        <v>0.3928510419240804</v>
+        <v>0.4697481250692204</v>
       </c>
       <c r="Q13">
-        <v>208.2451211346476</v>
+        <v>275.2120339622085</v>
       </c>
       <c r="R13">
-        <v>1874.206090211828</v>
+        <v>2476.908305659876</v>
       </c>
       <c r="S13">
-        <v>0.1504681841706892</v>
+        <v>0.1827077235692266</v>
       </c>
       <c r="T13">
-        <v>0.1683251498494273</v>
+        <v>0.1887483108898602</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H14">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I14">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J14">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.398911333333333</v>
+        <v>6.332890333333334</v>
       </c>
       <c r="N14">
-        <v>13.196734</v>
+        <v>18.998671</v>
       </c>
       <c r="O14">
-        <v>0.1282605498275261</v>
+        <v>0.2348289906656054</v>
       </c>
       <c r="P14">
-        <v>0.1402218661287388</v>
+        <v>0.241384649217969</v>
       </c>
       <c r="Q14">
-        <v>74.32974939989757</v>
+        <v>141.4203841021021</v>
       </c>
       <c r="R14">
-        <v>668.9677445990781</v>
+        <v>1272.783456918919</v>
       </c>
       <c r="S14">
-        <v>0.05370720025096491</v>
+        <v>0.09388614325320098</v>
       </c>
       <c r="T14">
-        <v>0.06008095718083298</v>
+        <v>0.09699015788071394</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H15">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I15">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J15">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.776807999999999</v>
+        <v>2.1972435</v>
       </c>
       <c r="N15">
-        <v>17.553616</v>
+        <v>4.394487</v>
       </c>
       <c r="O15">
-        <v>0.2559083678910167</v>
+        <v>0.08147566848516331</v>
       </c>
       <c r="P15">
-        <v>0.1865159055890107</v>
+        <v>0.05583346871936067</v>
       </c>
       <c r="Q15">
-        <v>148.3044075536453</v>
+        <v>49.0668562662905</v>
       </c>
       <c r="R15">
-        <v>889.8264453218719</v>
+        <v>294.401137597743</v>
       </c>
       <c r="S15">
-        <v>0.1071578281763361</v>
+        <v>0.03257449713243069</v>
       </c>
       <c r="T15">
-        <v>0.07991659536858017</v>
+        <v>0.02243430542771886</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H16">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I16">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J16">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.112757333333333</v>
+        <v>3.055677</v>
       </c>
       <c r="N16">
-        <v>9.338272</v>
+        <v>9.167031</v>
       </c>
       <c r="O16">
-        <v>0.09075972139462624</v>
+        <v>0.1133071169625662</v>
       </c>
       <c r="P16">
-        <v>0.09922378720808875</v>
+        <v>0.1164702816478714</v>
       </c>
       <c r="Q16">
-        <v>52.59721212749156</v>
+        <v>68.23661745055099</v>
       </c>
       <c r="R16">
-        <v>473.374909147424</v>
+        <v>614.129557054959</v>
       </c>
       <c r="S16">
-        <v>0.03800428532559485</v>
+        <v>0.04530091529415579</v>
       </c>
       <c r="T16">
-        <v>0.04251448276330883</v>
+        <v>0.04679863049301706</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H17">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I17">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J17">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.684044333333333</v>
+        <v>3.058122</v>
       </c>
       <c r="N17">
-        <v>17.052133</v>
+        <v>9.174365999999999</v>
       </c>
       <c r="O17">
-        <v>0.1657316086171094</v>
+        <v>0.1133977796540004</v>
       </c>
       <c r="P17">
-        <v>0.1811873991500813</v>
+        <v>0.1165634753455787</v>
       </c>
       <c r="Q17">
-        <v>15.634896122104</v>
+        <v>2.551959995292</v>
       </c>
       <c r="R17">
-        <v>93.80937673262399</v>
+        <v>15.311759971752</v>
       </c>
       <c r="S17">
-        <v>0.01129704463841542</v>
+        <v>0.001694194816508502</v>
       </c>
       <c r="T17">
-        <v>0.008425155311503459</v>
+        <v>0.001166804933721281</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H18">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I18">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J18">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>36.972484</v>
       </c>
       <c r="O18">
-        <v>0.3593397522697215</v>
+        <v>0.4569904442326647</v>
       </c>
       <c r="P18">
-        <v>0.3928510419240804</v>
+        <v>0.4697481250692204</v>
       </c>
       <c r="Q18">
-        <v>33.899626909792</v>
+        <v>10.284340094408</v>
       </c>
       <c r="R18">
-        <v>203.397761458752</v>
+        <v>61.70604056644801</v>
       </c>
       <c r="S18">
-        <v>0.02449428479950865</v>
+        <v>0.006827566149665659</v>
       </c>
       <c r="T18">
-        <v>0.01826744606977184</v>
+        <v>0.00470219705025188</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H19">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I19">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J19">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.398911333333333</v>
+        <v>6.332890333333334</v>
       </c>
       <c r="N19">
-        <v>13.196734</v>
+        <v>18.998671</v>
       </c>
       <c r="O19">
-        <v>0.1282605498275261</v>
+        <v>0.2348289906656054</v>
       </c>
       <c r="P19">
-        <v>0.1402218661287388</v>
+        <v>0.241384649217969</v>
       </c>
       <c r="Q19">
-        <v>12.099927043792</v>
+        <v>5.284708322702001</v>
       </c>
       <c r="R19">
-        <v>72.599562262752</v>
+        <v>31.70824993621201</v>
       </c>
       <c r="S19">
-        <v>0.008742841325439723</v>
+        <v>0.003508411363657217</v>
       </c>
       <c r="T19">
-        <v>0.006520271308850236</v>
+        <v>0.002416269751713353</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H20">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I20">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J20">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.776807999999999</v>
+        <v>2.1972435</v>
       </c>
       <c r="N20">
-        <v>17.553616</v>
+        <v>4.394487</v>
       </c>
       <c r="O20">
-        <v>0.2559083678910167</v>
+        <v>0.08147566848516331</v>
       </c>
       <c r="P20">
-        <v>0.1865159055890107</v>
+        <v>0.05583346871936067</v>
       </c>
       <c r="Q20">
-        <v>24.142049800512</v>
+        <v>1.833568939341</v>
       </c>
       <c r="R20">
-        <v>96.56819920204799</v>
+        <v>7.334275757364</v>
       </c>
       <c r="S20">
-        <v>0.01744391597675227</v>
+        <v>0.001217269470710128</v>
       </c>
       <c r="T20">
-        <v>0.008672929133176013</v>
+        <v>0.0005588951991640657</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H21">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I21">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J21">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.112757333333333</v>
+        <v>3.055677</v>
       </c>
       <c r="N21">
-        <v>9.338272</v>
+        <v>9.167031</v>
       </c>
       <c r="O21">
-        <v>0.09075972139462624</v>
+        <v>0.1133071169625662</v>
       </c>
       <c r="P21">
-        <v>0.09922378720808875</v>
+        <v>0.1164702816478714</v>
       </c>
       <c r="Q21">
-        <v>8.562149537535999</v>
+        <v>2.549919677022</v>
       </c>
       <c r="R21">
-        <v>51.372897225216</v>
+        <v>15.299518062132</v>
       </c>
       <c r="S21">
-        <v>0.006186608773791807</v>
+        <v>0.001692840290323359</v>
       </c>
       <c r="T21">
-        <v>0.004613873932432033</v>
+        <v>0.001165872061173048</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H22">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I22">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J22">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.684044333333333</v>
+        <v>3.058122</v>
       </c>
       <c r="N22">
-        <v>17.052133</v>
+        <v>9.174365999999999</v>
       </c>
       <c r="O22">
-        <v>0.1657316086171094</v>
+        <v>0.1133977796540004</v>
       </c>
       <c r="P22">
-        <v>0.1811873991500813</v>
+        <v>0.1165634753455787</v>
       </c>
       <c r="Q22">
-        <v>69.21914939842233</v>
+        <v>72.48626413264398</v>
       </c>
       <c r="R22">
-        <v>622.9723445858009</v>
+        <v>652.3763771937959</v>
       </c>
       <c r="S22">
-        <v>0.05001451973074523</v>
+        <v>0.04812217009206678</v>
       </c>
       <c r="T22">
-        <v>0.05595004402242777</v>
+        <v>0.04971316014339526</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H23">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I23">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J23">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>36.972484</v>
       </c>
       <c r="O23">
-        <v>0.3593397522697215</v>
+        <v>0.4569904442326647</v>
       </c>
       <c r="P23">
-        <v>0.3928510419240804</v>
+        <v>0.4697481250692204</v>
       </c>
       <c r="Q23">
-        <v>150.0811595609053</v>
+        <v>292.1179775108116</v>
       </c>
       <c r="R23">
-        <v>1350.730436048148</v>
+        <v>2629.061797597304</v>
       </c>
       <c r="S23">
-        <v>0.1084416260718036</v>
+        <v>0.1939312388206682</v>
       </c>
       <c r="T23">
-        <v>0.1213110469768507</v>
+        <v>0.2003428921400257</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H24">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I24">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J24">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.398911333333333</v>
+        <v>6.332890333333334</v>
       </c>
       <c r="N24">
-        <v>13.196734</v>
+        <v>18.998671</v>
       </c>
       <c r="O24">
-        <v>0.1282605498275261</v>
+        <v>0.2348289906656054</v>
       </c>
       <c r="P24">
-        <v>0.1402218661287388</v>
+        <v>0.241384649217969</v>
       </c>
       <c r="Q24">
-        <v>53.56905803615533</v>
+        <v>150.1076678514029</v>
       </c>
       <c r="R24">
-        <v>482.1215223253981</v>
+        <v>1350.969010662626</v>
       </c>
       <c r="S24">
-        <v>0.03870649572252319</v>
+        <v>0.0996534558775197</v>
       </c>
       <c r="T24">
-        <v>0.04330002869742274</v>
+        <v>0.1029481463825053</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H25">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I25">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J25">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.776807999999999</v>
+        <v>2.1972435</v>
       </c>
       <c r="N25">
-        <v>17.553616</v>
+        <v>4.394487</v>
       </c>
       <c r="O25">
-        <v>0.2559083678910167</v>
+        <v>0.08147566848516331</v>
       </c>
       <c r="P25">
-        <v>0.1865159055890107</v>
+        <v>0.05583346871936067</v>
       </c>
       <c r="Q25">
-        <v>106.882203685592</v>
+        <v>52.08097410918699</v>
       </c>
       <c r="R25">
-        <v>641.2932221135519</v>
+        <v>312.485844655122</v>
       </c>
       <c r="S25">
-        <v>0.07722808112433135</v>
+        <v>0.03457550923105362</v>
       </c>
       <c r="T25">
-        <v>0.0575954684351097</v>
+        <v>0.02381241777132814</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H26">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I26">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J26">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.112757333333333</v>
+        <v>3.055677</v>
       </c>
       <c r="N26">
-        <v>9.338272</v>
+        <v>9.167031</v>
       </c>
       <c r="O26">
-        <v>0.09075972139462624</v>
+        <v>0.1133071169625662</v>
       </c>
       <c r="P26">
-        <v>0.09922378720808875</v>
+        <v>0.1164702816478714</v>
       </c>
       <c r="Q26">
-        <v>37.90653314110934</v>
+        <v>72.42831061875398</v>
       </c>
       <c r="R26">
-        <v>341.158798269984</v>
+        <v>651.8547955687859</v>
       </c>
       <c r="S26">
-        <v>0.02738948782507536</v>
+        <v>0.04808369592201239</v>
       </c>
       <c r="T26">
-        <v>0.03063996331094794</v>
+        <v>0.04967341396042722</v>
       </c>
     </row>
   </sheetData>
